--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel05/field_36ha_100ha_18%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4102,28 +4102,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4951.660423355371</v>
+        <v>5245.109587547237</v>
       </c>
       <c r="AB2" t="n">
-        <v>6775.080243075526</v>
+        <v>7176.590335586299</v>
       </c>
       <c r="AC2" t="n">
-        <v>6128.476093560985</v>
+        <v>6491.666626365468</v>
       </c>
       <c r="AD2" t="n">
-        <v>4951660.423355371</v>
+        <v>5245109.587547237</v>
       </c>
       <c r="AE2" t="n">
-        <v>6775080.243075525</v>
+        <v>7176590.335586299</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.562798062200699e-07</v>
+        <v>6.578023595540838e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>67</v>
+        <v>66.61458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>6128476.093560984</v>
+        <v>6491666.626365468</v>
       </c>
     </row>
     <row r="3">
@@ -4208,28 +4208,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2904.959486251747</v>
+        <v>3111.989721142759</v>
       </c>
       <c r="AB3" t="n">
-        <v>3974.693726857479</v>
+        <v>4257.961627764729</v>
       </c>
       <c r="AC3" t="n">
-        <v>3595.354536083732</v>
+        <v>3851.58774609738</v>
       </c>
       <c r="AD3" t="n">
-        <v>2904959.486251746</v>
+        <v>3111989.721142759</v>
       </c>
       <c r="AE3" t="n">
-        <v>3974693.726857479</v>
+        <v>4257961.627764729</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.46448910539001e-07</v>
+        <v>9.319623899345325e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>48</v>
+        <v>47.01388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3595354.536083732</v>
+        <v>3851587.74609738</v>
       </c>
     </row>
     <row r="4">
@@ -4314,28 +4314,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2456.279244288653</v>
+        <v>2637.494716647786</v>
       </c>
       <c r="AB4" t="n">
-        <v>3360.789625428281</v>
+        <v>3608.736629372466</v>
       </c>
       <c r="AC4" t="n">
-        <v>3040.040580475143</v>
+        <v>3264.323870358692</v>
       </c>
       <c r="AD4" t="n">
-        <v>2456279.244288653</v>
+        <v>2637494.716647787</v>
       </c>
       <c r="AE4" t="n">
-        <v>3360789.625428281</v>
+        <v>3608736.629372466</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.210775482736602e-07</v>
+        <v>1.03955184123821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>43</v>
+        <v>42.14699074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>3040040.580475143</v>
+        <v>3264323.870358692</v>
       </c>
     </row>
     <row r="5">
@@ -4420,28 +4420,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2237.196434571281</v>
+        <v>2418.326476567292</v>
       </c>
       <c r="AB5" t="n">
-        <v>3061.03085992153</v>
+        <v>3308.86097427397</v>
       </c>
       <c r="AC5" t="n">
-        <v>2768.890370834299</v>
+        <v>2993.067926904682</v>
       </c>
       <c r="AD5" t="n">
-        <v>2237196.434571282</v>
+        <v>2418326.476567292</v>
       </c>
       <c r="AE5" t="n">
-        <v>3061030.85992153</v>
+        <v>3308860.97427397</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.623044874866844e-07</v>
+        <v>1.098987252408785e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.87268518518519</v>
       </c>
       <c r="AH5" t="n">
-        <v>2768890.370834299</v>
+        <v>2993067.926904682</v>
       </c>
     </row>
     <row r="6">
@@ -4526,28 +4526,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2116.579664748601</v>
+        <v>2289.161679803702</v>
       </c>
       <c r="AB6" t="n">
-        <v>2895.997674213633</v>
+        <v>3132.132000993352</v>
       </c>
       <c r="AC6" t="n">
-        <v>2619.607720744947</v>
+        <v>2833.205718793301</v>
       </c>
       <c r="AD6" t="n">
-        <v>2116579.664748601</v>
+        <v>2289161.679803702</v>
       </c>
       <c r="AE6" t="n">
-        <v>2895997.674213633</v>
+        <v>3132132.000993352</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.874082797718126e-07</v>
+        <v>1.135178496408193e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.59953703703704</v>
       </c>
       <c r="AH6" t="n">
-        <v>2619607.720744947</v>
+        <v>2833205.718793301</v>
       </c>
     </row>
     <row r="7">
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>2029.660048519785</v>
+        <v>2202.156722720314</v>
       </c>
       <c r="AB7" t="n">
-        <v>2777.070420666533</v>
+        <v>3013.087980324047</v>
       </c>
       <c r="AC7" t="n">
-        <v>2512.030717360934</v>
+        <v>2725.523092377347</v>
       </c>
       <c r="AD7" t="n">
-        <v>2029660.048519785</v>
+        <v>2202156.722720314</v>
       </c>
       <c r="AE7" t="n">
-        <v>2777070.420666533</v>
+        <v>3013087.980324047</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.043717210021398e-07</v>
+        <v>1.159634085972646e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.78356481481482</v>
       </c>
       <c r="AH7" t="n">
-        <v>2512030.717360934</v>
+        <v>2725523.092377347</v>
       </c>
     </row>
     <row r="8">
@@ -4738,28 +4738,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1965.094605152731</v>
+        <v>2128.958001066325</v>
       </c>
       <c r="AB8" t="n">
-        <v>2688.7291326254</v>
+        <v>2912.9342600572</v>
       </c>
       <c r="AC8" t="n">
-        <v>2432.12059786267</v>
+        <v>2634.927902606252</v>
       </c>
       <c r="AD8" t="n">
-        <v>1965094.605152731</v>
+        <v>2128958.001066325</v>
       </c>
       <c r="AE8" t="n">
-        <v>2688729.1326254</v>
+        <v>2912934.2600572</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.173437642959194e-07</v>
+        <v>1.178335419168992e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>38</v>
+        <v>37.18750000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>2432120.59786267</v>
+        <v>2634927.902606252</v>
       </c>
     </row>
     <row r="9">
@@ -4844,28 +4844,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1904.085946809264</v>
+        <v>2068.034594068878</v>
       </c>
       <c r="AB9" t="n">
-        <v>2605.25439476782</v>
+        <v>2829.576166852268</v>
       </c>
       <c r="AC9" t="n">
-        <v>2356.612571828686</v>
+        <v>2559.52538882298</v>
       </c>
       <c r="AD9" t="n">
-        <v>1904085.946809263</v>
+        <v>2068034.594068878</v>
       </c>
       <c r="AE9" t="n">
-        <v>2605254.394767819</v>
+        <v>2829576.166852268</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.268495935921708e-07</v>
+        <v>1.192039634993036e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.75925925925926</v>
       </c>
       <c r="AH9" t="n">
-        <v>2356612.571828686</v>
+        <v>2559525.38882298</v>
       </c>
     </row>
     <row r="10">
@@ -4950,28 +4950,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1852.24362976078</v>
+        <v>2016.021684819802</v>
       </c>
       <c r="AB10" t="n">
-        <v>2534.321449460473</v>
+        <v>2758.409809770075</v>
       </c>
       <c r="AC10" t="n">
-        <v>2292.449367266458</v>
+        <v>2495.151048978101</v>
       </c>
       <c r="AD10" t="n">
-        <v>1852243.62976078</v>
+        <v>2016021.684819802</v>
       </c>
       <c r="AE10" t="n">
-        <v>2534321.449460472</v>
+        <v>2758409.809770075</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.354100917981873e-07</v>
+        <v>1.204381000624633e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.38310185185185</v>
       </c>
       <c r="AH10" t="n">
-        <v>2292449.367266458</v>
+        <v>2495151.048978101</v>
       </c>
     </row>
     <row r="11">
@@ -5056,28 +5056,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1812.168655102892</v>
+        <v>1967.484024075574</v>
       </c>
       <c r="AB11" t="n">
-        <v>2479.489101150446</v>
+        <v>2691.998441009358</v>
       </c>
       <c r="AC11" t="n">
-        <v>2242.850141321458</v>
+        <v>2435.077888042965</v>
       </c>
       <c r="AD11" t="n">
-        <v>1812168.655102892</v>
+        <v>1967484.024075574</v>
       </c>
       <c r="AE11" t="n">
-        <v>2479489.101150447</v>
+        <v>2691998.441009358</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.411871151274008e-07</v>
+        <v>1.212709529578471e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>37</v>
+        <v>36.12847222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>2242850.141321457</v>
+        <v>2435077.888042965</v>
       </c>
     </row>
     <row r="12">
@@ -5162,28 +5162,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1757.497874565972</v>
+        <v>1921.361180971015</v>
       </c>
       <c r="AB12" t="n">
-        <v>2404.686127315219</v>
+        <v>2628.89113227747</v>
       </c>
       <c r="AC12" t="n">
-        <v>2175.18625832243</v>
+        <v>2377.993452284785</v>
       </c>
       <c r="AD12" t="n">
-        <v>1757497.874565972</v>
+        <v>1921361.180971015</v>
       </c>
       <c r="AE12" t="n">
-        <v>2404686.127315219</v>
+        <v>2628891.13227747</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.464914729114971e-07</v>
+        <v>1.220356633436087e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.90277777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>2175186.25832243</v>
+        <v>2377993.452284785</v>
       </c>
     </row>
     <row r="13">
@@ -5268,28 +5268,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1722.594975726648</v>
+        <v>1886.458282131691</v>
       </c>
       <c r="AB13" t="n">
-        <v>2356.930441316034</v>
+        <v>2581.135446278285</v>
       </c>
       <c r="AC13" t="n">
-        <v>2131.988307969482</v>
+        <v>2334.795501931836</v>
       </c>
       <c r="AD13" t="n">
-        <v>1722594.975726648</v>
+        <v>1886458.282131691</v>
       </c>
       <c r="AE13" t="n">
-        <v>2356930.441316034</v>
+        <v>2581135.446278285</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.503778340602408e-07</v>
+        <v>1.225959462005033e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.74074074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>2131988.307969482</v>
+        <v>2334795.501931836</v>
       </c>
     </row>
     <row r="14">
@@ -5374,28 +5374,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1724.856703659676</v>
+        <v>1888.720010064719</v>
       </c>
       <c r="AB14" t="n">
-        <v>2360.025037254396</v>
+        <v>2584.230042216648</v>
       </c>
       <c r="AC14" t="n">
-        <v>2134.78756001478</v>
+        <v>2337.594753977135</v>
       </c>
       <c r="AD14" t="n">
-        <v>1724856.703659676</v>
+        <v>1888720.010064719</v>
       </c>
       <c r="AE14" t="n">
-        <v>2360025.037254396</v>
+        <v>2584230.042216648</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.499051685151233e-07</v>
+        <v>1.22527803690881e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.75810185185185</v>
       </c>
       <c r="AH14" t="n">
-        <v>2134787.56001478</v>
+        <v>2337594.753977135</v>
       </c>
     </row>
     <row r="15">
@@ -5480,28 +5480,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>1728.772456321189</v>
+        <v>1892.635762726232</v>
       </c>
       <c r="AB15" t="n">
-        <v>2365.382742796693</v>
+        <v>2589.587747758946</v>
       </c>
       <c r="AC15" t="n">
-        <v>2139.633933659707</v>
+        <v>2342.441127622062</v>
       </c>
       <c r="AD15" t="n">
-        <v>1728772.456321189</v>
+        <v>1892635.762726232</v>
       </c>
       <c r="AE15" t="n">
-        <v>2365382.742796693</v>
+        <v>2589587.747758945</v>
       </c>
       <c r="AF15" t="n">
-        <v>8.509030179992602e-07</v>
+        <v>1.226716601000836e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>36</v>
+        <v>35.7175925925926</v>
       </c>
       <c r="AH15" t="n">
-        <v>2139633.933659707</v>
+        <v>2342441.127622062</v>
       </c>
     </row>
   </sheetData>
@@ -5777,28 +5777,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3701.828550331833</v>
+        <v>3954.09532392676</v>
       </c>
       <c r="AB2" t="n">
-        <v>5065.005135713879</v>
+        <v>5410.16766457107</v>
       </c>
       <c r="AC2" t="n">
-        <v>4581.608154340511</v>
+        <v>4893.828855882209</v>
       </c>
       <c r="AD2" t="n">
-        <v>3701828.550331832</v>
+        <v>3954095.32392676</v>
       </c>
       <c r="AE2" t="n">
-        <v>5065005.135713879</v>
+        <v>5410167.664571069</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.399813349921645e-07</v>
+        <v>7.905123608961403e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>59</v>
+        <v>58.22916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>4581608.154340511</v>
+        <v>4893828.855882209</v>
       </c>
     </row>
     <row r="3">
@@ -5883,28 +5883,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2372.699074582475</v>
+        <v>2566.129134638402</v>
       </c>
       <c r="AB3" t="n">
-        <v>3246.43154993943</v>
+        <v>3511.091091639947</v>
       </c>
       <c r="AC3" t="n">
-        <v>2936.596679208386</v>
+        <v>3175.997485700995</v>
       </c>
       <c r="AD3" t="n">
-        <v>2372699.074582475</v>
+        <v>2566129.134638402</v>
       </c>
       <c r="AE3" t="n">
-        <v>3246431.54993943</v>
+        <v>3511091.091639947</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.165523520687852e-07</v>
+        <v>1.049005687479545e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.87731481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>2936596.679208386</v>
+        <v>3175997.485700995</v>
       </c>
     </row>
     <row r="4">
@@ -5989,28 +5989,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2058.902104106003</v>
+        <v>2227.165323860046</v>
       </c>
       <c r="AB4" t="n">
-        <v>2817.08069118804</v>
+        <v>3047.305851705045</v>
       </c>
       <c r="AC4" t="n">
-        <v>2548.222463818636</v>
+        <v>2756.475258138825</v>
       </c>
       <c r="AD4" t="n">
-        <v>2058902.104106003</v>
+        <v>2227165.323860046</v>
       </c>
       <c r="AE4" t="n">
-        <v>2817080.69118804</v>
+        <v>3047305.851705045</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.830517135770265e-07</v>
+        <v>1.146358251091264e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.15046296296296</v>
       </c>
       <c r="AH4" t="n">
-        <v>2548222.463818636</v>
+        <v>2756475.258138825</v>
       </c>
     </row>
     <row r="5">
@@ -6095,28 +6095,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1895.816638280706</v>
+        <v>2063.909176325603</v>
       </c>
       <c r="AB5" t="n">
-        <v>2593.939962022903</v>
+        <v>2823.931588295333</v>
       </c>
       <c r="AC5" t="n">
-        <v>2346.377972665039</v>
+        <v>2554.419520921304</v>
       </c>
       <c r="AD5" t="n">
-        <v>1895816.638280706</v>
+        <v>2063909.176325603</v>
       </c>
       <c r="AE5" t="n">
-        <v>2593939.962022903</v>
+        <v>2823931.588295333</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.190178715169412e-07</v>
+        <v>1.199011353306099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.38541666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>2346377.972665039</v>
+        <v>2554419.520921303</v>
       </c>
     </row>
     <row r="6">
@@ -6201,28 +6201,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1793.612488747296</v>
+        <v>1953.372944091762</v>
       </c>
       <c r="AB6" t="n">
-        <v>2454.099735702438</v>
+        <v>2672.691038838592</v>
       </c>
       <c r="AC6" t="n">
-        <v>2219.883901277608</v>
+        <v>2417.613157237269</v>
       </c>
       <c r="AD6" t="n">
-        <v>1793612.488747296</v>
+        <v>1953372.944091762</v>
       </c>
       <c r="AE6" t="n">
-        <v>2454099.735702438</v>
+        <v>2672691.038838592</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.409126776344423e-07</v>
+        <v>1.231064525802441e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.3900462962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>2219883.901277608</v>
+        <v>2417613.157237269</v>
       </c>
     </row>
     <row r="7">
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1711.846446958594</v>
+        <v>1871.69215364908</v>
       </c>
       <c r="AB7" t="n">
-        <v>2342.22383006396</v>
+        <v>2560.931777852763</v>
       </c>
       <c r="AC7" t="n">
-        <v>2118.685275054446</v>
+        <v>2316.52004326482</v>
       </c>
       <c r="AD7" t="n">
-        <v>1711846.446958594</v>
+        <v>1871692.15364908</v>
       </c>
       <c r="AE7" t="n">
-        <v>2342223.83006396</v>
+        <v>2560931.777852763</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.557446430688784e-07</v>
+        <v>1.252777965235447e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.74189814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>2118685.275054446</v>
+        <v>2316520.04326482</v>
       </c>
     </row>
     <row r="8">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1647.683721912686</v>
+        <v>1799.11209455672</v>
       </c>
       <c r="AB8" t="n">
-        <v>2254.433558996497</v>
+        <v>2461.624538996376</v>
       </c>
       <c r="AC8" t="n">
-        <v>2039.273584243243</v>
+        <v>2226.690547906301</v>
       </c>
       <c r="AD8" t="n">
-        <v>1647683.721912686</v>
+        <v>1799112.09455672</v>
       </c>
       <c r="AE8" t="n">
-        <v>2254433.558996497</v>
+        <v>2461624.538996376</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.674254949677933e-07</v>
+        <v>1.269878292994041e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.24421296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>2039273.584243243</v>
+        <v>2226690.547906301</v>
       </c>
     </row>
     <row r="9">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1583.800661821128</v>
+        <v>1743.561027657043</v>
       </c>
       <c r="AB9" t="n">
-        <v>2167.025937857524</v>
+        <v>2385.617118524131</v>
       </c>
       <c r="AC9" t="n">
-        <v>1960.208023788407</v>
+        <v>2157.937168966842</v>
       </c>
       <c r="AD9" t="n">
-        <v>1583800.661821128</v>
+        <v>1743561.027657043</v>
       </c>
       <c r="AE9" t="n">
-        <v>2167025.937857524</v>
+        <v>2385617.11852413</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.747599833694376e-07</v>
+        <v>1.280615708098275e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.94328703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1960208.023788407</v>
+        <v>2157937.168966842</v>
       </c>
     </row>
     <row r="10">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1569.2787500179</v>
+        <v>1729.039115853815</v>
       </c>
       <c r="AB10" t="n">
-        <v>2147.156417466815</v>
+        <v>2365.747598133421</v>
       </c>
       <c r="AC10" t="n">
-        <v>1942.23482253674</v>
+        <v>2139.963967715175</v>
       </c>
       <c r="AD10" t="n">
-        <v>1569278.7500179</v>
+        <v>1729039.115853815</v>
       </c>
       <c r="AE10" t="n">
-        <v>2147156.417466815</v>
+        <v>2365747.598133422</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.774221310115158e-07</v>
+        <v>1.284512992099071e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1942234.82253674</v>
+        <v>2139963.967715175</v>
       </c>
     </row>
     <row r="11">
@@ -6731,28 +6731,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1573.101149532209</v>
+        <v>1732.861515368123</v>
       </c>
       <c r="AB11" t="n">
-        <v>2152.386393114656</v>
+        <v>2370.977573781263</v>
       </c>
       <c r="AC11" t="n">
-        <v>1946.965656649069</v>
+        <v>2144.694801827503</v>
       </c>
       <c r="AD11" t="n">
-        <v>1573101.149532209</v>
+        <v>1732861.515368123</v>
       </c>
       <c r="AE11" t="n">
-        <v>2152386.393114656</v>
+        <v>2370977.573781263</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.773678014677999e-07</v>
+        <v>1.284433455690891e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.83333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>1946965.656649069</v>
+        <v>2144694.801827503</v>
       </c>
     </row>
   </sheetData>
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1687.776673800923</v>
+        <v>1858.486433753608</v>
       </c>
       <c r="AB2" t="n">
-        <v>2309.290504546187</v>
+        <v>2542.863129296534</v>
       </c>
       <c r="AC2" t="n">
-        <v>2088.895059901877</v>
+        <v>2300.17584116729</v>
       </c>
       <c r="AD2" t="n">
-        <v>1687776.673800923</v>
+        <v>1858486.433753608</v>
       </c>
       <c r="AE2" t="n">
-        <v>2309290.504546186</v>
+        <v>2542863.129296534</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.066610304168771e-07</v>
+        <v>1.248004182577371e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>44</v>
+        <v>43.48958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>2088895.059901877</v>
+        <v>2300175.84116729</v>
       </c>
     </row>
     <row r="3">
@@ -7134,28 +7134,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1285.63011433805</v>
+        <v>1440.805207313704</v>
       </c>
       <c r="AB3" t="n">
-        <v>1759.05584043501</v>
+        <v>1971.373248486246</v>
       </c>
       <c r="AC3" t="n">
-        <v>1591.17401987427</v>
+        <v>1783.22815249045</v>
       </c>
       <c r="AD3" t="n">
-        <v>1285630.11433805</v>
+        <v>1440805.207313704</v>
       </c>
       <c r="AE3" t="n">
-        <v>1759055.84043501</v>
+        <v>1971373.248486246</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.288181006325697e-07</v>
+        <v>1.436996248404322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.77199074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>1591174.01987427</v>
+        <v>1783228.15249045</v>
       </c>
     </row>
     <row r="4">
@@ -7240,28 +7240,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1198.166370914721</v>
+        <v>1345.659516010706</v>
       </c>
       <c r="AB4" t="n">
-        <v>1639.384088055179</v>
+        <v>1841.190716113831</v>
       </c>
       <c r="AC4" t="n">
-        <v>1482.92357158121</v>
+        <v>1665.470058295326</v>
       </c>
       <c r="AD4" t="n">
-        <v>1198166.37091472</v>
+        <v>1345659.516010706</v>
       </c>
       <c r="AE4" t="n">
-        <v>1639384.088055179</v>
+        <v>1841190.716113831</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.541588725185051e-07</v>
+        <v>1.476201550397208e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.77083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1482923.57158121</v>
+        <v>1665470.058295326</v>
       </c>
     </row>
     <row r="5">
@@ -7346,28 +7346,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1205.191450092523</v>
+        <v>1352.684595188508</v>
       </c>
       <c r="AB5" t="n">
-        <v>1648.996111310868</v>
+        <v>1850.80273936952</v>
       </c>
       <c r="AC5" t="n">
-        <v>1491.618236827936</v>
+        <v>1674.164723542052</v>
       </c>
       <c r="AD5" t="n">
-        <v>1205191.450092523</v>
+        <v>1352684.595188509</v>
       </c>
       <c r="AE5" t="n">
-        <v>1648996.111310868</v>
+        <v>1850802.73936952</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.540376248061323e-07</v>
+        <v>1.476013965220209e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.77083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1491618.236827936</v>
+        <v>1674164.723542052</v>
       </c>
     </row>
   </sheetData>
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2275.296147967686</v>
+        <v>2475.662104052157</v>
       </c>
       <c r="AB2" t="n">
-        <v>3113.16056863122</v>
+        <v>3387.310109268131</v>
       </c>
       <c r="AC2" t="n">
-        <v>2816.044893309239</v>
+        <v>3064.029986559049</v>
       </c>
       <c r="AD2" t="n">
-        <v>2275296.147967685</v>
+        <v>2475662.104052157</v>
       </c>
       <c r="AE2" t="n">
-        <v>3113160.568631221</v>
+        <v>3387310.109268131</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.001388118940657e-07</v>
+        <v>1.05811556348585e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.93981481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>2816044.893309239</v>
+        <v>3064029.986559049</v>
       </c>
     </row>
     <row r="3">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1658.47996888004</v>
+        <v>1826.760062917533</v>
       </c>
       <c r="AB3" t="n">
-        <v>2269.205460394032</v>
+        <v>2499.45370904992</v>
       </c>
       <c r="AC3" t="n">
-        <v>2052.635676103891</v>
+        <v>2260.909355063508</v>
       </c>
       <c r="AD3" t="n">
-        <v>1658479.96888004</v>
+        <v>1826760.062917533</v>
       </c>
       <c r="AE3" t="n">
-        <v>2269205.460394032</v>
+        <v>2499453.70904992</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.443191537072406e-07</v>
+        <v>1.276014444435636e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.75115740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>2052635.676103891</v>
+        <v>2260909.355063508</v>
       </c>
     </row>
     <row r="4">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1465.078374572798</v>
+        <v>1617.315627095353</v>
       </c>
       <c r="AB4" t="n">
-        <v>2004.5848667867</v>
+        <v>2212.882591921633</v>
       </c>
       <c r="AC4" t="n">
-        <v>1813.270100553108</v>
+        <v>2001.688183148856</v>
       </c>
       <c r="AD4" t="n">
-        <v>1465078.374572798</v>
+        <v>1617315.627095353</v>
       </c>
       <c r="AE4" t="n">
-        <v>2004584.8667867</v>
+        <v>2212882.591921633</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.973283381067746e-07</v>
+        <v>1.356126905090545e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.40162037037037</v>
       </c>
       <c r="AH4" t="n">
-        <v>1813270.100553108</v>
+        <v>2001688.183148856</v>
       </c>
     </row>
     <row r="5">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1354.035880699083</v>
+        <v>1506.187792367066</v>
       </c>
       <c r="AB5" t="n">
-        <v>1852.651627819597</v>
+        <v>2060.832585832332</v>
       </c>
       <c r="AC5" t="n">
-        <v>1675.837156673385</v>
+        <v>1864.149616237194</v>
       </c>
       <c r="AD5" t="n">
-        <v>1354035.880699083</v>
+        <v>1506187.792367066</v>
       </c>
       <c r="AE5" t="n">
-        <v>1852651.627819597</v>
+        <v>2060832.585832332</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.226729919170553e-07</v>
+        <v>1.394430127526208e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.37731481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>1675837.156673385</v>
+        <v>1864149.616237194</v>
       </c>
     </row>
     <row r="6">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1331.947373188711</v>
+        <v>1476.248501054093</v>
       </c>
       <c r="AB6" t="n">
-        <v>1822.429157367731</v>
+        <v>2019.868326629609</v>
       </c>
       <c r="AC6" t="n">
-        <v>1648.499076383941</v>
+        <v>1827.09492843908</v>
       </c>
       <c r="AD6" t="n">
-        <v>1331947.373188711</v>
+        <v>1476248.501054093</v>
       </c>
       <c r="AE6" t="n">
-        <v>1822429.157367731</v>
+        <v>2019868.326629609</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.276027300723729e-07</v>
+        <v>1.401880411066325e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.1863425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1648499.076383941</v>
+        <v>1827094.92843908</v>
       </c>
     </row>
     <row r="7">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1339.55385106008</v>
+        <v>1483.854978925462</v>
       </c>
       <c r="AB7" t="n">
-        <v>1832.836675965458</v>
+        <v>2030.275845227336</v>
       </c>
       <c r="AC7" t="n">
-        <v>1657.913316013744</v>
+        <v>1836.509168068884</v>
       </c>
       <c r="AD7" t="n">
-        <v>1339553.85106008</v>
+        <v>1483854.978925462</v>
       </c>
       <c r="AE7" t="n">
-        <v>1832836.675965457</v>
+        <v>2030275.845227336</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.276027300723729e-07</v>
+        <v>1.401880411066325e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.18055555555556</v>
       </c>
       <c r="AH7" t="n">
-        <v>1657913.316013744</v>
+        <v>1836509.168068884</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1296.62332573394</v>
+        <v>1455.273029259332</v>
       </c>
       <c r="AB2" t="n">
-        <v>1774.097237253124</v>
+        <v>1991.168760747511</v>
       </c>
       <c r="AC2" t="n">
-        <v>1604.779886890796</v>
+        <v>1801.134408844676</v>
       </c>
       <c r="AD2" t="n">
-        <v>1296623.325733939</v>
+        <v>1455273.029259332</v>
       </c>
       <c r="AE2" t="n">
-        <v>1774097.237253124</v>
+        <v>1991168.760747511</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.981038852564991e-07</v>
+        <v>1.419442404727864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.57291666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1604779.886890796</v>
+        <v>1801134.408844676</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1101.292552467075</v>
+        <v>1244.909973572757</v>
       </c>
       <c r="AB3" t="n">
-        <v>1506.837055883868</v>
+        <v>1703.340747394112</v>
       </c>
       <c r="AC3" t="n">
-        <v>1363.026642129402</v>
+        <v>1540.776297116571</v>
       </c>
       <c r="AD3" t="n">
-        <v>1101292.552467075</v>
+        <v>1244909.973572757</v>
       </c>
       <c r="AE3" t="n">
-        <v>1506837.055883868</v>
+        <v>1703340.747394112</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.692520477873351e-07</v>
+        <v>1.531891221142788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.59259259259259</v>
       </c>
       <c r="AH3" t="n">
-        <v>1363026.642129402</v>
+        <v>1540776.297116571</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3982.92731153615</v>
+        <v>4245.371040706636</v>
       </c>
       <c r="AB2" t="n">
-        <v>5449.616861995761</v>
+        <v>5808.703950447023</v>
       </c>
       <c r="AC2" t="n">
-        <v>4929.513077271983</v>
+        <v>5254.329397983337</v>
       </c>
       <c r="AD2" t="n">
-        <v>3982927.31153615</v>
+        <v>4245371.040706636</v>
       </c>
       <c r="AE2" t="n">
-        <v>5449616.86199576</v>
+        <v>5808703.950447023</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.179552812053887e-07</v>
+        <v>7.551199027370731e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>4929513.077271983</v>
+        <v>5254329.397983337</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2504.823303502174</v>
+        <v>2699.64416365373</v>
       </c>
       <c r="AB3" t="n">
-        <v>3427.209748856969</v>
+        <v>3693.772244606096</v>
       </c>
       <c r="AC3" t="n">
-        <v>3100.121660545023</v>
+        <v>3341.243805822657</v>
       </c>
       <c r="AD3" t="n">
-        <v>2504823.303502174</v>
+        <v>2699644.16365373</v>
       </c>
       <c r="AE3" t="n">
-        <v>3427209.748856969</v>
+        <v>3693772.244606096</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.975167014569451e-07</v>
+        <v>1.016900035338751e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>45</v>
+        <v>44.67013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>3100121.660545023</v>
+        <v>3341243.805822656</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2150.593034405665</v>
+        <v>2328.465529252343</v>
       </c>
       <c r="AB4" t="n">
-        <v>2942.536267142393</v>
+        <v>3185.909261772446</v>
       </c>
       <c r="AC4" t="n">
-        <v>2661.704735681911</v>
+        <v>2881.850553280496</v>
       </c>
       <c r="AD4" t="n">
-        <v>2150593.034405665</v>
+        <v>2328465.529252343</v>
       </c>
       <c r="AE4" t="n">
-        <v>2942536.267142393</v>
+        <v>3185909.261772446</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.669184018180413e-07</v>
+        <v>1.118079822722128e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>41</v>
+        <v>40.62500000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>2661704.735681911</v>
+        <v>2881850.553280496</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1981.930478711983</v>
+        <v>2151.328790906218</v>
       </c>
       <c r="AB5" t="n">
-        <v>2711.76471757549</v>
+        <v>2943.542961645735</v>
       </c>
       <c r="AC5" t="n">
-        <v>2452.957698915769</v>
+        <v>2662.615352674759</v>
       </c>
       <c r="AD5" t="n">
-        <v>1981930.478711983</v>
+        <v>2151328.790906218</v>
       </c>
       <c r="AE5" t="n">
-        <v>2711764.71757549</v>
+        <v>2943542.961645735</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.034229424269033e-07</v>
+        <v>1.171299291958691e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.78472222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>2452957.698915769</v>
+        <v>2662615.352674759</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1873.657069270404</v>
+        <v>2042.970040610068</v>
       </c>
       <c r="AB6" t="n">
-        <v>2563.620262091819</v>
+        <v>2795.281739039867</v>
       </c>
       <c r="AC6" t="n">
-        <v>2318.951942341411</v>
+        <v>2528.503973068463</v>
       </c>
       <c r="AD6" t="n">
-        <v>1873657.069270405</v>
+        <v>2042970.040610068</v>
       </c>
       <c r="AE6" t="n">
-        <v>2563620.262091819</v>
+        <v>2795281.739039867</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.268439972423237e-07</v>
+        <v>1.205444526645866e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.68518518518519</v>
       </c>
       <c r="AH6" t="n">
-        <v>2318951.942341411</v>
+        <v>2528503.973068463</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1802.425126060252</v>
+        <v>1963.264004256026</v>
       </c>
       <c r="AB7" t="n">
-        <v>2466.157574860144</v>
+        <v>2686.224423718117</v>
       </c>
       <c r="AC7" t="n">
-        <v>2230.790957189386</v>
+        <v>2429.854934858117</v>
       </c>
       <c r="AD7" t="n">
-        <v>1802425.126060252</v>
+        <v>1963264.004256026</v>
       </c>
       <c r="AE7" t="n">
-        <v>2466157.574860143</v>
+        <v>2686224.423718117</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.419196187327093e-07</v>
+        <v>1.227423068513473e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.00810185185185</v>
       </c>
       <c r="AH7" t="n">
-        <v>2230790.957189386</v>
+        <v>2429854.934858117</v>
       </c>
     </row>
     <row r="8">
@@ -9509,28 +9509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1730.599869963948</v>
+        <v>1891.353407305151</v>
       </c>
       <c r="AB8" t="n">
-        <v>2367.883090762517</v>
+        <v>2587.833172498294</v>
       </c>
       <c r="AC8" t="n">
-        <v>2141.895651924933</v>
+        <v>2340.854006561725</v>
       </c>
       <c r="AD8" t="n">
-        <v>1730599.869963948</v>
+        <v>1891353.407305151</v>
       </c>
       <c r="AE8" t="n">
-        <v>2367883.090762517</v>
+        <v>2587833.172498294</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.539801159250177e-07</v>
+        <v>1.245005902007559e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.48726851851852</v>
       </c>
       <c r="AH8" t="n">
-        <v>2141895.651924933</v>
+        <v>2340854.006561725</v>
       </c>
     </row>
     <row r="9">
@@ -9615,28 +9615,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1671.177548780209</v>
+        <v>1823.627585178114</v>
       </c>
       <c r="AB9" t="n">
-        <v>2286.578849391133</v>
+        <v>2495.167714811682</v>
       </c>
       <c r="AC9" t="n">
-        <v>2068.350973238813</v>
+        <v>2257.032410099937</v>
       </c>
       <c r="AD9" t="n">
-        <v>1671177.548780209</v>
+        <v>1823627.585178114</v>
       </c>
       <c r="AE9" t="n">
-        <v>2286578.849391133</v>
+        <v>2495167.714811682</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.626485982819893e-07</v>
+        <v>1.257643563581433e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.11689814814815</v>
       </c>
       <c r="AH9" t="n">
-        <v>2068350.973238813</v>
+        <v>2257032.410099937</v>
       </c>
     </row>
     <row r="10">
@@ -9721,28 +9721,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1620.126836882815</v>
+        <v>1780.965625570037</v>
       </c>
       <c r="AB10" t="n">
-        <v>2216.729013174661</v>
+        <v>2436.795739563086</v>
       </c>
       <c r="AC10" t="n">
-        <v>2005.167507355981</v>
+        <v>2204.231374243486</v>
       </c>
       <c r="AD10" t="n">
-        <v>1620126.836882815</v>
+        <v>1780965.625570037</v>
       </c>
       <c r="AE10" t="n">
-        <v>2216729.013174661</v>
+        <v>2436795.739563087</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.683557978462069e-07</v>
+        <v>1.26596401157417e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.88541666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>2005167.507355981</v>
+        <v>2204231.374243486</v>
       </c>
     </row>
     <row r="11">
@@ -9827,28 +9827,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1606.983527145614</v>
+        <v>1767.822315832837</v>
       </c>
       <c r="AB11" t="n">
-        <v>2198.745756950321</v>
+        <v>2418.812483338746</v>
       </c>
       <c r="AC11" t="n">
-        <v>1988.900547866033</v>
+        <v>2187.964414753538</v>
       </c>
       <c r="AD11" t="n">
-        <v>1606983.527145614</v>
+        <v>1767822.315832837</v>
       </c>
       <c r="AE11" t="n">
-        <v>2198745.756950321</v>
+        <v>2418812.483338746</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.705094580591191e-07</v>
+        <v>1.269103803269543e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.79282407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>1988900.547866033</v>
+        <v>2187964.414753538</v>
       </c>
     </row>
     <row r="12">
@@ -9933,28 +9933,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1612.192847023959</v>
+        <v>1773.031635711182</v>
       </c>
       <c r="AB12" t="n">
-        <v>2205.873378226846</v>
+        <v>2425.940104615272</v>
       </c>
       <c r="AC12" t="n">
-        <v>1995.347918971607</v>
+        <v>2194.411785859111</v>
       </c>
       <c r="AD12" t="n">
-        <v>1612192.847023959</v>
+        <v>1773031.635711182</v>
       </c>
       <c r="AE12" t="n">
-        <v>2205873.378226846</v>
+        <v>2425940.104615272</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.706171410697646e-07</v>
+        <v>1.269260792854311e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.78703703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>1995347.918971607</v>
+        <v>2194411.785859111</v>
       </c>
     </row>
   </sheetData>
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1095.532968816699</v>
+        <v>1244.069616236983</v>
       </c>
       <c r="AB2" t="n">
-        <v>1498.956539438527</v>
+        <v>1702.190933413357</v>
       </c>
       <c r="AC2" t="n">
-        <v>1355.898231113229</v>
+        <v>1539.736219768365</v>
       </c>
       <c r="AD2" t="n">
-        <v>1095532.968816699</v>
+        <v>1244069.616236983</v>
       </c>
       <c r="AE2" t="n">
-        <v>1498956.539438527</v>
+        <v>1702190.933413357</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.540270361044708e-07</v>
+        <v>1.528575410574866e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.08564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1355898.231113229</v>
+        <v>1539736.219768365</v>
       </c>
     </row>
     <row r="3">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1053.623031547762</v>
+        <v>1202.074338113474</v>
       </c>
       <c r="AB3" t="n">
-        <v>1441.613514331226</v>
+        <v>1644.731141183858</v>
       </c>
       <c r="AC3" t="n">
-        <v>1304.027943840728</v>
+        <v>1487.760309463925</v>
       </c>
       <c r="AD3" t="n">
-        <v>1053623.031547762</v>
+        <v>1202074.338113474</v>
       </c>
       <c r="AE3" t="n">
-        <v>1441613.514331226</v>
+        <v>1644731.141183859</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.730998446068971e-07</v>
+        <v>1.559134529954182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.32175925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>1304027.943840728</v>
+        <v>1487760.309463925</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2931.21787670473</v>
+        <v>3153.429282043427</v>
       </c>
       <c r="AB2" t="n">
-        <v>4010.621615113681</v>
+        <v>4314.661063173427</v>
       </c>
       <c r="AC2" t="n">
-        <v>3627.85351710987</v>
+        <v>3902.875866968828</v>
       </c>
       <c r="AD2" t="n">
-        <v>2931217.87670473</v>
+        <v>3153429.282043427</v>
       </c>
       <c r="AE2" t="n">
-        <v>4010621.615113681</v>
+        <v>4314661.063173427</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.13835724684155e-07</v>
+        <v>9.114497999523073e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.77199074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>3627853.51710987</v>
+        <v>3902875.866968828</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2014.568008337426</v>
+        <v>2195.52800871169</v>
       </c>
       <c r="AB3" t="n">
-        <v>2756.420825475208</v>
+        <v>3004.018281379224</v>
       </c>
       <c r="AC3" t="n">
-        <v>2493.35189055278</v>
+        <v>2717.318992770415</v>
       </c>
       <c r="AD3" t="n">
-        <v>2014568.008337426</v>
+        <v>2195528.00871169</v>
       </c>
       <c r="AE3" t="n">
-        <v>2756420.825475208</v>
+        <v>3004018.281379224</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.752712736527035e-07</v>
+        <v>1.151156276613118e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.78240740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>2493351.89055278</v>
+        <v>2717318.992770415</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1763.212478994528</v>
+        <v>1927.791394579415</v>
       </c>
       <c r="AB4" t="n">
-        <v>2412.505101204924</v>
+        <v>2637.689234217487</v>
       </c>
       <c r="AC4" t="n">
-        <v>2182.259000318102</v>
+        <v>2385.95187572386</v>
       </c>
       <c r="AD4" t="n">
-        <v>1763212.478994528</v>
+        <v>1927791.394579415</v>
       </c>
       <c r="AE4" t="n">
-        <v>2412505.101204924</v>
+        <v>2637689.234217486</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.357816163832863e-07</v>
+        <v>1.241004647372597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.75578703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>2182259.000318102</v>
+        <v>2385951.87572386</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1632.591843813751</v>
+        <v>1788.852295230644</v>
       </c>
       <c r="AB5" t="n">
-        <v>2233.784185574862</v>
+        <v>2447.586628928037</v>
       </c>
       <c r="AC5" t="n">
-        <v>2020.594958039392</v>
+        <v>2213.992396272553</v>
       </c>
       <c r="AD5" t="n">
-        <v>1632591.843813751</v>
+        <v>1788852.295230644</v>
       </c>
       <c r="AE5" t="n">
-        <v>2233784.185574863</v>
+        <v>2447586.628928037</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.676321113080796e-07</v>
+        <v>1.288297638086883e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.33217592592593</v>
       </c>
       <c r="AH5" t="n">
-        <v>2020594.958039392</v>
+        <v>2213992.396272554</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1538.077990370787</v>
+        <v>1694.423693133701</v>
       </c>
       <c r="AB6" t="n">
-        <v>2104.466161637265</v>
+        <v>2318.385249643089</v>
       </c>
       <c r="AC6" t="n">
-        <v>1903.618864807413</v>
+        <v>2097.121815291287</v>
       </c>
       <c r="AD6" t="n">
-        <v>1538077.990370787</v>
+        <v>1694423.693133701</v>
       </c>
       <c r="AE6" t="n">
-        <v>2104466.161637265</v>
+        <v>2318385.249643089</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.863841601653832e-07</v>
+        <v>1.31614149026489e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.54513888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>1903618.864807413</v>
+        <v>2097121.815291286</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1472.792793176288</v>
+        <v>1620.90537262578</v>
       </c>
       <c r="AB7" t="n">
-        <v>2015.140074656125</v>
+        <v>2217.794240124759</v>
       </c>
       <c r="AC7" t="n">
-        <v>1822.817934197802</v>
+        <v>2006.131070541017</v>
       </c>
       <c r="AD7" t="n">
-        <v>1472792.793176288</v>
+        <v>1620905.37262578</v>
       </c>
       <c r="AE7" t="n">
-        <v>2015140.074656125</v>
+        <v>2217794.240124759</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.987549147846792e-07</v>
+        <v>1.334510121104709e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.04166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1822817.934197802</v>
+        <v>2006131.070541017</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1449.78428297433</v>
+        <v>1606.044644882672</v>
       </c>
       <c r="AB8" t="n">
-        <v>1983.658815933976</v>
+        <v>2197.461136817602</v>
       </c>
       <c r="AC8" t="n">
-        <v>1794.34120262387</v>
+        <v>1987.738530075806</v>
       </c>
       <c r="AD8" t="n">
-        <v>1449784.28297433</v>
+        <v>1606044.644882672</v>
       </c>
       <c r="AE8" t="n">
-        <v>1983658.815933976</v>
+        <v>2197461.136817602</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.013298229859806e-07</v>
+        <v>1.338333456030645e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.94328703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>1794341.20262387</v>
+        <v>1987738.530075806</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1455.665654674855</v>
+        <v>1611.926016583197</v>
       </c>
       <c r="AB9" t="n">
-        <v>1991.705968162441</v>
+        <v>2205.508289046067</v>
       </c>
       <c r="AC9" t="n">
-        <v>1801.6203459379</v>
+        <v>1995.017673389835</v>
       </c>
       <c r="AD9" t="n">
-        <v>1455665.654674855</v>
+        <v>1611926.016583197</v>
       </c>
       <c r="AE9" t="n">
-        <v>1991705.96816244</v>
+        <v>2205508.289046067</v>
       </c>
       <c r="AF9" t="n">
-        <v>9.012178704554892e-07</v>
+        <v>1.338167224077343e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.94328703703704</v>
       </c>
       <c r="AH9" t="n">
-        <v>1801620.3459379</v>
+        <v>1995017.673389835</v>
       </c>
     </row>
   </sheetData>
@@ -11672,28 +11672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3425.836011147318</v>
+        <v>3667.976755619908</v>
       </c>
       <c r="AB2" t="n">
-        <v>4687.379967670109</v>
+        <v>5018.687616753241</v>
       </c>
       <c r="AC2" t="n">
-        <v>4240.023002334601</v>
+        <v>4539.711114382431</v>
       </c>
       <c r="AD2" t="n">
-        <v>3425836.011147317</v>
+        <v>3667976.755619908</v>
       </c>
       <c r="AE2" t="n">
-        <v>4687379.967670109</v>
+        <v>5018687.616753241</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.639223340672859e-07</v>
+        <v>8.292153549494732e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>57</v>
+        <v>56.28472222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>4240023.002334601</v>
+        <v>4539711.114382431</v>
       </c>
     </row>
     <row r="3">
@@ -11778,28 +11778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2253.137387102141</v>
+        <v>2436.853929577777</v>
       </c>
       <c r="AB3" t="n">
-        <v>3082.841974439447</v>
+        <v>3334.211052856458</v>
       </c>
       <c r="AC3" t="n">
-        <v>2788.619863194715</v>
+        <v>3015.998629566314</v>
       </c>
       <c r="AD3" t="n">
-        <v>2253137.387102142</v>
+        <v>2436853.929577777</v>
       </c>
       <c r="AE3" t="n">
-        <v>3082841.974439447</v>
+        <v>3334211.052856457</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.360277886775896e-07</v>
+        <v>1.082286526300518e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>44</v>
+        <v>43.125</v>
       </c>
       <c r="AH3" t="n">
-        <v>2788619.863194715</v>
+        <v>3015998.629566314</v>
       </c>
     </row>
     <row r="4">
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1957.801059512923</v>
+        <v>2133.15900635836</v>
       </c>
       <c r="AB4" t="n">
-        <v>2678.74978171249</v>
+        <v>2918.682260833035</v>
       </c>
       <c r="AC4" t="n">
-        <v>2423.093662194781</v>
+        <v>2640.127322255411</v>
       </c>
       <c r="AD4" t="n">
-        <v>1957801.059512923</v>
+        <v>2133159.00635836</v>
       </c>
       <c r="AE4" t="n">
-        <v>2678749.78171249</v>
+        <v>2918682.260833035</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.997035161481322e-07</v>
+        <v>1.175918020863477e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2423093.662194781</v>
+        <v>2640127.322255411</v>
       </c>
     </row>
     <row r="5">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1814.281181948443</v>
+        <v>1973.00754691371</v>
       </c>
       <c r="AB5" t="n">
-        <v>2482.379553578636</v>
+        <v>2699.555968637124</v>
       </c>
       <c r="AC5" t="n">
-        <v>2245.464733026676</v>
+        <v>2441.914135840994</v>
       </c>
       <c r="AD5" t="n">
-        <v>1814281.181948443</v>
+        <v>1973007.546913709</v>
       </c>
       <c r="AE5" t="n">
-        <v>2482379.553578636</v>
+        <v>2699555.968637124</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.339271629540053e-07</v>
+        <v>1.226241924917987e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>39</v>
+        <v>38.06134259259259</v>
       </c>
       <c r="AH5" t="n">
-        <v>2245464.733026676</v>
+        <v>2441914.135840994</v>
       </c>
     </row>
     <row r="6">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1716.388137109173</v>
+        <v>1875.029161219868</v>
       </c>
       <c r="AB6" t="n">
-        <v>2348.43797089321</v>
+        <v>2565.4976188295</v>
       </c>
       <c r="AC6" t="n">
-        <v>2124.306347004555</v>
+        <v>2320.650126786934</v>
       </c>
       <c r="AD6" t="n">
-        <v>1716388.137109173</v>
+        <v>1875029.161219868</v>
       </c>
       <c r="AE6" t="n">
-        <v>2348437.97089321</v>
+        <v>2565497.6188295</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.548233319172065e-07</v>
+        <v>1.256968539412808e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.12962962962963</v>
       </c>
       <c r="AH6" t="n">
-        <v>2124306.347004555</v>
+        <v>2320650.126786934</v>
       </c>
     </row>
     <row r="7">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1630.762569036604</v>
+        <v>1789.318252292727</v>
       </c>
       <c r="AB7" t="n">
-        <v>2231.281291122863</v>
+        <v>2448.224171936955</v>
       </c>
       <c r="AC7" t="n">
-        <v>2018.330936321057</v>
+        <v>2214.569093071498</v>
       </c>
       <c r="AD7" t="n">
-        <v>1630762.569036604</v>
+        <v>1789318.252292728</v>
       </c>
       <c r="AE7" t="n">
-        <v>2231281.291122863</v>
+        <v>2448224.171936955</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.706188612122249e-07</v>
+        <v>1.280194956668735e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.45833333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2018330.936321057</v>
+        <v>2214569.093071498</v>
       </c>
     </row>
     <row r="8">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1570.276919040347</v>
+        <v>1720.644777883967</v>
       </c>
       <c r="AB8" t="n">
-        <v>2148.522156359435</v>
+        <v>2354.262094591021</v>
       </c>
       <c r="AC8" t="n">
-        <v>1943.470217226276</v>
+        <v>2129.574624510855</v>
       </c>
       <c r="AD8" t="n">
-        <v>1570276.919040347</v>
+        <v>1720644.777883967</v>
       </c>
       <c r="AE8" t="n">
-        <v>2148522.156359435</v>
+        <v>2354262.094591021</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.799426111433122e-07</v>
+        <v>1.293904994632304e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.07060185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>1943470.217226276</v>
+        <v>2129574.624510855</v>
       </c>
     </row>
     <row r="9">
@@ -12414,28 +12414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1526.976988236499</v>
+        <v>1685.617922838642</v>
       </c>
       <c r="AB9" t="n">
-        <v>2089.277280775482</v>
+        <v>2306.336806242223</v>
       </c>
       <c r="AC9" t="n">
-        <v>1889.87958941735</v>
+        <v>2086.223258418502</v>
       </c>
       <c r="AD9" t="n">
-        <v>1526976.988236499</v>
+        <v>1685617.922838642</v>
       </c>
       <c r="AE9" t="n">
-        <v>2089277.280775482</v>
+        <v>2306336.806242223</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.854271699263047e-07</v>
+        <v>1.301969722846168e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.8449074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>1889879.58941735</v>
+        <v>2086223.258418502</v>
       </c>
     </row>
     <row r="10">
@@ -12520,28 +12520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1533.634432105154</v>
+        <v>1692.275366707299</v>
       </c>
       <c r="AB10" t="n">
-        <v>2098.386289182272</v>
+        <v>2315.445814649013</v>
       </c>
       <c r="AC10" t="n">
-        <v>1898.119246846369</v>
+        <v>2094.462915847522</v>
       </c>
       <c r="AD10" t="n">
-        <v>1533634.432105154</v>
+        <v>1692275.366707299</v>
       </c>
       <c r="AE10" t="n">
-        <v>2098386.289182272</v>
+        <v>2315445.814649013</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.849335596358352e-07</v>
+        <v>1.30124389730692e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>36</v>
+        <v>35.86805555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>1898119.246846369</v>
+        <v>2094462.915847522</v>
       </c>
     </row>
   </sheetData>
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4612.231510488204</v>
+        <v>4895.181419307904</v>
       </c>
       <c r="AB2" t="n">
-        <v>6310.658629943857</v>
+        <v>6697.803178059973</v>
       </c>
       <c r="AC2" t="n">
-        <v>5708.378227366791</v>
+        <v>6058.574243171477</v>
       </c>
       <c r="AD2" t="n">
-        <v>4612231.510488204</v>
+        <v>4895181.419307904</v>
       </c>
       <c r="AE2" t="n">
-        <v>6310658.629943857</v>
+        <v>6697803.178059973</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.757558534782902e-07</v>
+        <v>6.88310488697543e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>65</v>
+        <v>64.39236111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>5708378.227366791</v>
+        <v>6058574.243171477</v>
       </c>
     </row>
     <row r="3">
@@ -12923,28 +12923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2767.983018436744</v>
+        <v>2973.694970381481</v>
       </c>
       <c r="AB3" t="n">
-        <v>3787.276480617714</v>
+        <v>4068.740648639331</v>
       </c>
       <c r="AC3" t="n">
-        <v>3425.824128783342</v>
+        <v>3680.425751646405</v>
       </c>
       <c r="AD3" t="n">
-        <v>2767983.018436744</v>
+        <v>2973694.970381481</v>
       </c>
       <c r="AE3" t="n">
-        <v>3787276.480617714</v>
+        <v>4068740.648639331</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.629983653012248e-07</v>
+        <v>9.592078068819438e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>47</v>
+        <v>46.20949074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>3425824.128783341</v>
+        <v>3680425.751646406</v>
       </c>
     </row>
     <row r="4">
@@ -13029,28 +13029,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2350.393416025998</v>
+        <v>2539.026628900097</v>
       </c>
       <c r="AB4" t="n">
-        <v>3215.911963846253</v>
+        <v>3474.00824761063</v>
       </c>
       <c r="AC4" t="n">
-        <v>2908.989839577433</v>
+        <v>3142.453776259739</v>
       </c>
       <c r="AD4" t="n">
-        <v>2350393.416025998</v>
+        <v>2539026.628900097</v>
       </c>
       <c r="AE4" t="n">
-        <v>3215911.963846253</v>
+        <v>3474008.24761063</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.360001814742038e-07</v>
+        <v>1.064824827457655e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.62615740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>2908989.839577434</v>
+        <v>3142453.776259739</v>
       </c>
     </row>
     <row r="5">
@@ -13135,28 +13135,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2156.253591862482</v>
+        <v>2327.893496029069</v>
       </c>
       <c r="AB5" t="n">
-        <v>2950.28129158098</v>
+        <v>3185.126580680038</v>
       </c>
       <c r="AC5" t="n">
-        <v>2668.71058585829</v>
+        <v>2881.142570173047</v>
       </c>
       <c r="AD5" t="n">
-        <v>2156253.591862482</v>
+        <v>2327893.496029069</v>
       </c>
       <c r="AE5" t="n">
-        <v>2950281.29158098</v>
+        <v>3185126.580680038</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.754920994329002e-07</v>
+        <v>1.121960648595784e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.50231481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>2668710.58585829</v>
+        <v>2881142.570173047</v>
       </c>
     </row>
     <row r="6">
@@ -13241,28 +13241,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>2040.144766236571</v>
+        <v>2211.528737347993</v>
       </c>
       <c r="AB6" t="n">
-        <v>2791.41607399974</v>
+        <v>3025.911184201742</v>
       </c>
       <c r="AC6" t="n">
-        <v>2525.007241674271</v>
+        <v>2737.122467674434</v>
       </c>
       <c r="AD6" t="n">
-        <v>2040144.766236571</v>
+        <v>2211528.737347993</v>
       </c>
       <c r="AE6" t="n">
-        <v>2791416.07399974</v>
+        <v>3025911.184201743</v>
       </c>
       <c r="AF6" t="n">
-        <v>7.995789930940353e-07</v>
+        <v>1.156808904115688e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>39</v>
+        <v>38.31597222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>2525007.24167427</v>
+        <v>2737122.467674434</v>
       </c>
     </row>
     <row r="7">
@@ -13347,28 +13347,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1951.688456708117</v>
+        <v>2114.575773465779</v>
       </c>
       <c r="AB7" t="n">
-        <v>2670.386248885951</v>
+        <v>2893.255861755032</v>
       </c>
       <c r="AC7" t="n">
-        <v>2415.528333202915</v>
+        <v>2617.127583019237</v>
       </c>
       <c r="AD7" t="n">
-        <v>1951688.456708117</v>
+        <v>2114575.773465779</v>
       </c>
       <c r="AE7" t="n">
-        <v>2670386.248885951</v>
+        <v>2893255.861755032</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.1699567004901e-07</v>
+        <v>1.182006873491619e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>2415528.333202915</v>
+        <v>2617127.583019237</v>
       </c>
     </row>
     <row r="8">
@@ -13453,28 +13453,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1879.074555373061</v>
+        <v>2042.047123476744</v>
       </c>
       <c r="AB8" t="n">
-        <v>2571.032705580093</v>
+        <v>2794.018963101823</v>
       </c>
       <c r="AC8" t="n">
-        <v>2325.656952626594</v>
+        <v>2527.361714693628</v>
       </c>
       <c r="AD8" t="n">
-        <v>1879074.555373061</v>
+        <v>2042047.123476744</v>
       </c>
       <c r="AE8" t="n">
-        <v>2571032.705580093</v>
+        <v>2794018.963101823</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.295949682717576e-07</v>
+        <v>1.200235191763569e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.92708333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>2325656.952626594</v>
+        <v>2527361.714693628</v>
       </c>
     </row>
     <row r="9">
@@ -13559,28 +13559,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1823.270215844468</v>
+        <v>1986.242783948151</v>
       </c>
       <c r="AB9" t="n">
-        <v>2494.678746323366</v>
+        <v>2717.665003845096</v>
       </c>
       <c r="AC9" t="n">
-        <v>2256.590108077874</v>
+        <v>2458.294870144907</v>
       </c>
       <c r="AD9" t="n">
-        <v>1823270.215844468</v>
+        <v>1986242.783948151</v>
       </c>
       <c r="AE9" t="n">
-        <v>2494678.746323366</v>
+        <v>2717665.003845096</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.392297257362117e-07</v>
+        <v>1.214174493971531e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.50462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>2256590.108077874</v>
+        <v>2458294.870144907</v>
       </c>
     </row>
     <row r="10">
@@ -13665,28 +13665,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1781.211832077637</v>
+        <v>1935.602494481542</v>
       </c>
       <c r="AB10" t="n">
-        <v>2437.132610168649</v>
+        <v>2648.376725704984</v>
       </c>
       <c r="AC10" t="n">
-        <v>2204.536094391254</v>
+        <v>2395.619368023779</v>
       </c>
       <c r="AD10" t="n">
-        <v>1781211.832077637</v>
+        <v>1935602.494481542</v>
       </c>
       <c r="AE10" t="n">
-        <v>2437132.610168648</v>
+        <v>2648376.725704983</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.459528806701989e-07</v>
+        <v>1.223901369688076e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.21527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>2204536.094391254</v>
+        <v>2395619.368023779</v>
       </c>
     </row>
     <row r="11">
@@ -13771,28 +13771,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1721.727750474357</v>
+        <v>1884.614977723468</v>
       </c>
       <c r="AB11" t="n">
-        <v>2355.743865466571</v>
+        <v>2578.613355866103</v>
       </c>
       <c r="AC11" t="n">
-        <v>2130.914977253721</v>
+        <v>2332.514116288817</v>
       </c>
       <c r="AD11" t="n">
-        <v>1721727.750474357</v>
+        <v>1884614.977723468</v>
       </c>
       <c r="AE11" t="n">
-        <v>2355743.865466571</v>
+        <v>2578613.355866103</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.523584062372262e-07</v>
+        <v>1.233168707969194e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.94328703703704</v>
       </c>
       <c r="AH11" t="n">
-        <v>2130914.977253721</v>
+        <v>2332514.116288817</v>
       </c>
     </row>
     <row r="12">
@@ -13877,28 +13877,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1690.996985536119</v>
+        <v>1853.88421278523</v>
       </c>
       <c r="AB12" t="n">
-        <v>2313.696677132409</v>
+        <v>2536.56616753194</v>
       </c>
       <c r="AC12" t="n">
-        <v>2092.880713560572</v>
+        <v>2294.479852595668</v>
       </c>
       <c r="AD12" t="n">
-        <v>1690996.985536119</v>
+        <v>1853884.21278523</v>
       </c>
       <c r="AE12" t="n">
-        <v>2313696.677132409</v>
+        <v>2536566.16753194</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.555346999068264e-07</v>
+        <v>1.237764082323467e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.81018518518518</v>
       </c>
       <c r="AH12" t="n">
-        <v>2092880.713560572</v>
+        <v>2294479.852595667</v>
       </c>
     </row>
     <row r="13">
@@ -13983,28 +13983,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1681.623862151657</v>
+        <v>1844.511089400768</v>
       </c>
       <c r="AB13" t="n">
-        <v>2300.871956204769</v>
+        <v>2523.7414466043</v>
       </c>
       <c r="AC13" t="n">
-        <v>2081.279965998658</v>
+        <v>2282.879105033753</v>
       </c>
       <c r="AD13" t="n">
-        <v>1681623.862151657</v>
+        <v>1844511.089400769</v>
       </c>
       <c r="AE13" t="n">
-        <v>2300871.956204769</v>
+        <v>2523741.4466043</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.576522290198931e-07</v>
+        <v>1.240827665226315e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.7175925925926</v>
       </c>
       <c r="AH13" t="n">
-        <v>2081279.965998658</v>
+        <v>2282879.105033753</v>
       </c>
     </row>
     <row r="14">
@@ -14089,28 +14089,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>1688.591012053261</v>
+        <v>1851.478239302372</v>
       </c>
       <c r="AB14" t="n">
-        <v>2310.404718069104</v>
+        <v>2533.274208468636</v>
       </c>
       <c r="AC14" t="n">
-        <v>2089.902934449975</v>
+        <v>2291.502073485071</v>
       </c>
       <c r="AD14" t="n">
-        <v>1688591.012053261</v>
+        <v>1851478.239302372</v>
       </c>
       <c r="AE14" t="n">
-        <v>2310404.718069104</v>
+        <v>2533274.208468636</v>
       </c>
       <c r="AF14" t="n">
-        <v>8.575992907920666e-07</v>
+        <v>1.240751075653744e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>36</v>
+        <v>35.72337962962963</v>
       </c>
       <c r="AH14" t="n">
-        <v>2089902.934449975</v>
+        <v>2291502.073485071</v>
       </c>
     </row>
   </sheetData>
@@ -14386,28 +14386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2485.626472919644</v>
+        <v>2687.851111549026</v>
       </c>
       <c r="AB2" t="n">
-        <v>3400.943798349557</v>
+        <v>3677.6364704437</v>
       </c>
       <c r="AC2" t="n">
-        <v>3076.362495489547</v>
+        <v>3326.648007299618</v>
       </c>
       <c r="AD2" t="n">
-        <v>2485626.472919644</v>
+        <v>2687851.111549026</v>
       </c>
       <c r="AE2" t="n">
-        <v>3400943.798349557</v>
+        <v>3677636.4704437</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.700141859432167e-07</v>
+        <v>1.006149994215988e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>50</v>
+        <v>49.4675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>3076362.495489547</v>
+        <v>3326648.007299618</v>
       </c>
     </row>
     <row r="3">
@@ -14492,28 +14492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1780.258252955442</v>
+        <v>1950.014313797456</v>
       </c>
       <c r="AB3" t="n">
-        <v>2435.82788114472</v>
+        <v>2668.095612697613</v>
       </c>
       <c r="AC3" t="n">
-        <v>2203.355886874171</v>
+        <v>2413.456312117463</v>
       </c>
       <c r="AD3" t="n">
-        <v>1780258.252955442</v>
+        <v>1950014.313797456</v>
       </c>
       <c r="AE3" t="n">
-        <v>2435827.88114472</v>
+        <v>2668095.612697612</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.198925622671244e-07</v>
+        <v>1.231220045918119e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>41</v>
+        <v>40.4224537037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>2203355.886874171</v>
+        <v>2413456.312117463</v>
       </c>
     </row>
     <row r="4">
@@ -14598,28 +14598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1565.233859594791</v>
+        <v>1726.979362549626</v>
       </c>
       <c r="AB4" t="n">
-        <v>2141.622019941944</v>
+        <v>2362.929352792728</v>
       </c>
       <c r="AC4" t="n">
-        <v>1937.228620144068</v>
+        <v>2137.414691754364</v>
       </c>
       <c r="AD4" t="n">
-        <v>1565233.85959479</v>
+        <v>1726979.362549626</v>
       </c>
       <c r="AE4" t="n">
-        <v>2141622.019941945</v>
+        <v>2362929.352792728</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.750445975746992e-07</v>
+        <v>1.314041008772209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.87615740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>1937228.620144068</v>
+        <v>2137414.691754364</v>
       </c>
     </row>
     <row r="5">
@@ -14704,28 +14704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1444.237312074552</v>
+        <v>1597.97234665076</v>
       </c>
       <c r="AB5" t="n">
-        <v>1976.069205633814</v>
+        <v>2186.416262252036</v>
       </c>
       <c r="AC5" t="n">
-        <v>1787.475934078671</v>
+        <v>1977.747762837198</v>
       </c>
       <c r="AD5" t="n">
-        <v>1444237.312074552</v>
+        <v>1597972.34665076</v>
       </c>
       <c r="AE5" t="n">
-        <v>1976069.205633814</v>
+        <v>2186416.262252036</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.037374009901666e-07</v>
+        <v>1.357128550194742e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.6724537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1787475.934078671</v>
+        <v>1977747.762837198</v>
       </c>
     </row>
     <row r="6">
@@ -14810,28 +14810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1380.80641919817</v>
+        <v>1526.44573404973</v>
       </c>
       <c r="AB6" t="n">
-        <v>1889.280259626854</v>
+        <v>2088.550395359865</v>
       </c>
       <c r="AC6" t="n">
-        <v>1708.970003269565</v>
+        <v>1889.222076925609</v>
       </c>
       <c r="AD6" t="n">
-        <v>1380806.41919817</v>
+        <v>1526445.73404973</v>
       </c>
       <c r="AE6" t="n">
-        <v>1889280.259626854</v>
+        <v>2088550.395359865</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.171388301303248e-07</v>
+        <v>1.377253270140596e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.13425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1708970.003269565</v>
+        <v>1889222.076925609</v>
       </c>
     </row>
     <row r="7">
@@ -14916,28 +14916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1381.484857428865</v>
+        <v>1527.124172280426</v>
       </c>
       <c r="AB7" t="n">
-        <v>1890.208528744673</v>
+        <v>2089.478664477685</v>
       </c>
       <c r="AC7" t="n">
-        <v>1709.809679685613</v>
+        <v>1890.061753341658</v>
       </c>
       <c r="AD7" t="n">
-        <v>1381484.857428865</v>
+        <v>1527124.172280426</v>
       </c>
       <c r="AE7" t="n">
-        <v>1890208.528744673</v>
+        <v>2089478.664477685</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.178260829067434e-07</v>
+        <v>1.378285307060896e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.11111111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>1709809.679685613</v>
+        <v>1890061.753341658</v>
       </c>
     </row>
   </sheetData>
@@ -15213,28 +15213,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1877.024203678571</v>
+        <v>2065.364788924787</v>
       </c>
       <c r="AB2" t="n">
-        <v>2568.227323936559</v>
+        <v>2825.923221670632</v>
       </c>
       <c r="AC2" t="n">
-        <v>2323.119312669741</v>
+        <v>2556.221075602538</v>
       </c>
       <c r="AD2" t="n">
-        <v>1877024.203678571</v>
+        <v>2065364.788924787</v>
       </c>
       <c r="AE2" t="n">
-        <v>2568227.323936559</v>
+        <v>2825923.221670632</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.681495166129559e-07</v>
+        <v>1.178146823760191e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.94212962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>2323119.312669741</v>
+        <v>2556221.075602538</v>
       </c>
     </row>
     <row r="3">
@@ -15319,28 +15319,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1418.454811639905</v>
+        <v>1575.36271842635</v>
       </c>
       <c r="AB3" t="n">
-        <v>1940.792451095487</v>
+        <v>2155.480771448998</v>
       </c>
       <c r="AC3" t="n">
-        <v>1755.565943482247</v>
+        <v>1949.764711858168</v>
       </c>
       <c r="AD3" t="n">
-        <v>1418454.811639905</v>
+        <v>1575362.71842635</v>
       </c>
       <c r="AE3" t="n">
-        <v>1940792.451095487</v>
+        <v>2155480.771448998</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.978448450625183e-07</v>
+        <v>1.377066612114855e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>39</v>
+        <v>38.45486111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>1755565.943482247</v>
+        <v>1949764.711858168</v>
       </c>
     </row>
     <row r="4">
@@ -15425,28 +15425,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1257.721247978463</v>
+        <v>1406.94155497342</v>
       </c>
       <c r="AB4" t="n">
-        <v>1720.869698229537</v>
+        <v>1925.039505395367</v>
       </c>
       <c r="AC4" t="n">
-        <v>1556.6323094863</v>
+        <v>1741.316436810347</v>
       </c>
       <c r="AD4" t="n">
-        <v>1257721.247978464</v>
+        <v>1406941.55497342</v>
       </c>
       <c r="AE4" t="n">
-        <v>1720869.698229537</v>
+        <v>1925039.505395367</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.411561644987566e-07</v>
+        <v>1.443495207489964e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>37</v>
+        <v>36.68402777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>1556632.3094863</v>
+        <v>1741316.436810347</v>
       </c>
     </row>
     <row r="5">
@@ -15531,28 +15531,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1250.181717112649</v>
+        <v>1399.402024107605</v>
       </c>
       <c r="AB5" t="n">
-        <v>1710.553779478302</v>
+        <v>1914.723586644132</v>
       </c>
       <c r="AC5" t="n">
-        <v>1547.3009275422</v>
+        <v>1731.985054866247</v>
       </c>
       <c r="AD5" t="n">
-        <v>1250181.717112649</v>
+        <v>1399402.024107605</v>
       </c>
       <c r="AE5" t="n">
-        <v>1710553.779478302</v>
+        <v>1914723.586644132</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.44974242245202e-07</v>
+        <v>1.449351171820552e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.53356481481482</v>
       </c>
       <c r="AH5" t="n">
-        <v>1547300.9275422</v>
+        <v>1731985.054866247</v>
       </c>
     </row>
   </sheetData>
@@ -28441,28 +28441,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1498.287297152587</v>
+        <v>1659.235507698486</v>
       </c>
       <c r="AB2" t="n">
-        <v>2050.022779734632</v>
+        <v>2270.23922193745</v>
       </c>
       <c r="AC2" t="n">
-        <v>1854.3714828618</v>
+        <v>2053.570776896499</v>
       </c>
       <c r="AD2" t="n">
-        <v>1498287.297152587</v>
+        <v>1659235.507698486</v>
       </c>
       <c r="AE2" t="n">
-        <v>2050022.779734632</v>
+        <v>2270239.22193745</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.496015030832002e-07</v>
+        <v>1.327485589867279e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.03703703703704</v>
       </c>
       <c r="AH2" t="n">
-        <v>1854371.4828618</v>
+        <v>2053570.776896499</v>
       </c>
     </row>
     <row r="3">
@@ -28547,28 +28547,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1167.259904456165</v>
+        <v>1312.786253967309</v>
       </c>
       <c r="AB3" t="n">
-        <v>1597.096497149513</v>
+        <v>1796.212068720089</v>
       </c>
       <c r="AC3" t="n">
-        <v>1444.671849000575</v>
+        <v>1624.784109880914</v>
       </c>
       <c r="AD3" t="n">
-        <v>1167259.904456165</v>
+        <v>1312786.253967309</v>
       </c>
       <c r="AE3" t="n">
-        <v>1597096.497149513</v>
+        <v>1796212.068720089</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.580310695041476e-07</v>
+        <v>1.496904648587176e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>38</v>
+        <v>37.27430555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1444671.849000575</v>
+        <v>1624784.109880914</v>
       </c>
     </row>
     <row r="4">
@@ -28653,28 +28653,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1160.001838463842</v>
+        <v>1305.528187974987</v>
       </c>
       <c r="AB4" t="n">
-        <v>1587.165691055545</v>
+        <v>1786.28126262612</v>
       </c>
       <c r="AC4" t="n">
-        <v>1435.688825102241</v>
+        <v>1615.801085982581</v>
       </c>
       <c r="AD4" t="n">
-        <v>1160001.838463842</v>
+        <v>1305528.187974987</v>
       </c>
       <c r="AE4" t="n">
-        <v>1587165.691055545</v>
+        <v>1786281.26262612</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.624743983500829e-07</v>
+        <v>1.503847262262664e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.10648148148149</v>
       </c>
       <c r="AH4" t="n">
-        <v>1435688.825102241</v>
+        <v>1615801.085982581</v>
       </c>
     </row>
   </sheetData>
@@ -28950,28 +28950,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>984.2596083132107</v>
+        <v>1137.215805946526</v>
       </c>
       <c r="AB2" t="n">
-        <v>1346.70741856345</v>
+        <v>1555.988836116545</v>
       </c>
       <c r="AC2" t="n">
-        <v>1218.179552651487</v>
+        <v>1407.487445441629</v>
       </c>
       <c r="AD2" t="n">
-        <v>984259.6083132108</v>
+        <v>1137215.805946526</v>
       </c>
       <c r="AE2" t="n">
-        <v>1346707.41856345</v>
+        <v>1555988.836116545</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.676529438577423e-07</v>
+        <v>1.576960907724684e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>40</v>
+        <v>39.61226851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1218179.552651487</v>
+        <v>1407487.445441629</v>
       </c>
     </row>
     <row r="3">
@@ -29056,28 +29056,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>994.3640752118082</v>
+        <v>1147.320272845124</v>
       </c>
       <c r="AB3" t="n">
-        <v>1360.532795951729</v>
+        <v>1569.814213504824</v>
       </c>
       <c r="AC3" t="n">
-        <v>1230.685455425867</v>
+        <v>1419.99334821601</v>
       </c>
       <c r="AD3" t="n">
-        <v>994364.0752118082</v>
+        <v>1147320.272845124</v>
       </c>
       <c r="AE3" t="n">
-        <v>1360532.795951729</v>
+        <v>1569814.213504824</v>
       </c>
       <c r="AF3" t="n">
-        <v>9.675204703217224e-07</v>
+        <v>1.576745018764765e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.61805555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>1230685.455425867</v>
+        <v>1419993.34821601</v>
       </c>
     </row>
   </sheetData>
@@ -29353,28 +29353,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3173.569857937755</v>
+        <v>3405.805994981378</v>
       </c>
       <c r="AB2" t="n">
-        <v>4342.218287651548</v>
+        <v>4659.974015889922</v>
       </c>
       <c r="AC2" t="n">
-        <v>3927.803068619563</v>
+        <v>4215.23263612782</v>
       </c>
       <c r="AD2" t="n">
-        <v>3173569.857937756</v>
+        <v>3405805.994981378</v>
       </c>
       <c r="AE2" t="n">
-        <v>4342218.287651548</v>
+        <v>4659974.015889922</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.881085910805122e-07</v>
+        <v>8.688603435817941e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.50810185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>3927803.068619563</v>
+        <v>4215232.63612782</v>
       </c>
     </row>
     <row r="3">
@@ -29459,28 +29459,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2134.158453141511</v>
+        <v>2316.440824149215</v>
       </c>
       <c r="AB3" t="n">
-        <v>2920.049748014221</v>
+        <v>3169.456529757797</v>
       </c>
       <c r="AC3" t="n">
-        <v>2641.364298379305</v>
+        <v>2866.968046917772</v>
       </c>
       <c r="AD3" t="n">
-        <v>2134158.45314151</v>
+        <v>2316440.824149215</v>
       </c>
       <c r="AE3" t="n">
-        <v>2920049.748014221</v>
+        <v>3169456.529757797</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.550634082149818e-07</v>
+        <v>1.115516185679894e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>43</v>
+        <v>42.4537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>2641364.298379305</v>
+        <v>2866968.046917772</v>
       </c>
     </row>
     <row r="4">
@@ -29565,28 +29565,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1865.979218265916</v>
+        <v>2031.752538849748</v>
       </c>
       <c r="AB4" t="n">
-        <v>2553.115087624597</v>
+        <v>2779.933458250146</v>
       </c>
       <c r="AC4" t="n">
-        <v>2309.449366981237</v>
+        <v>2514.620510655865</v>
       </c>
       <c r="AD4" t="n">
-        <v>1865979.218265916</v>
+        <v>2031752.538849748</v>
       </c>
       <c r="AE4" t="n">
-        <v>2553115.087624597</v>
+        <v>2779933.458250146</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.17048292214143e-07</v>
+        <v>1.207091463486057e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>40</v>
+        <v>39.23611111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>2309449.366981237</v>
+        <v>2514620.510655865</v>
       </c>
     </row>
     <row r="5">
@@ -29671,28 +29671,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1723.560233715823</v>
+        <v>1889.333464791104</v>
       </c>
       <c r="AB5" t="n">
-        <v>2358.251149880999</v>
+        <v>2585.069398037</v>
       </c>
       <c r="AC5" t="n">
-        <v>2133.182969962633</v>
+        <v>2338.354002856035</v>
       </c>
       <c r="AD5" t="n">
-        <v>1723560.233715823</v>
+        <v>1889333.464791104</v>
       </c>
       <c r="AE5" t="n">
-        <v>2358251.149881</v>
+        <v>2585069.398037</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.498964032163792e-07</v>
+        <v>1.255620632153666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.71990740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>2133182.969962633</v>
+        <v>2338354.002856035</v>
       </c>
     </row>
     <row r="6">
@@ -29777,28 +29777,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1623.975521166611</v>
+        <v>1781.536897457242</v>
       </c>
       <c r="AB6" t="n">
-        <v>2221.994952803719</v>
+        <v>2437.577378961897</v>
       </c>
       <c r="AC6" t="n">
-        <v>2009.930873097634</v>
+        <v>2204.938415075111</v>
       </c>
       <c r="AD6" t="n">
-        <v>1623975.521166611</v>
+        <v>1781536.897457242</v>
       </c>
       <c r="AE6" t="n">
-        <v>2221994.952803719</v>
+        <v>2437577.378961897</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.707796036343272e-07</v>
+        <v>1.286473071593275e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.8113425925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>2009930.873097634</v>
+        <v>2204938.415075111</v>
       </c>
     </row>
     <row r="7">
@@ -29883,28 +29883,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1551.2510464318</v>
+        <v>1700.515316591761</v>
       </c>
       <c r="AB7" t="n">
-        <v>2122.490118094161</v>
+        <v>2326.720077601868</v>
       </c>
       <c r="AC7" t="n">
-        <v>1919.922640156844</v>
+        <v>2104.661178967684</v>
       </c>
       <c r="AD7" t="n">
-        <v>1551251.0464318</v>
+        <v>1700515.316591761</v>
       </c>
       <c r="AE7" t="n">
-        <v>2122490.118094161</v>
+        <v>2326720.077601868</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.843509142507656e-07</v>
+        <v>1.306523065393552e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.25</v>
       </c>
       <c r="AH7" t="n">
-        <v>1919922.640156844</v>
+        <v>2104661.178967684</v>
       </c>
     </row>
     <row r="8">
@@ -29989,28 +29989,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1492.897294285516</v>
+        <v>1650.373329721575</v>
       </c>
       <c r="AB8" t="n">
-        <v>2042.647940021761</v>
+        <v>2258.113599057741</v>
       </c>
       <c r="AC8" t="n">
-        <v>1847.700487500473</v>
+        <v>2042.602406446011</v>
       </c>
       <c r="AD8" t="n">
-        <v>1492897.294285516</v>
+        <v>1650373.329721575</v>
       </c>
       <c r="AE8" t="n">
-        <v>2042647.940021761</v>
+        <v>2258113.599057741</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.921059488887302e-07</v>
+        <v>1.317980204707996e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>36</v>
+        <v>35.93171296296297</v>
       </c>
       <c r="AH8" t="n">
-        <v>1847700.487500473</v>
+        <v>2042602.406446012</v>
       </c>
     </row>
     <row r="9">
@@ -30095,28 +30095,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1488.578962430076</v>
+        <v>1646.054997866135</v>
       </c>
       <c r="AB9" t="n">
-        <v>2036.739407865793</v>
+        <v>2252.205066901773</v>
       </c>
       <c r="AC9" t="n">
-        <v>1842.355857360794</v>
+        <v>2037.257776306332</v>
       </c>
       <c r="AD9" t="n">
-        <v>1488578.962430076</v>
+        <v>1646054.997866135</v>
       </c>
       <c r="AE9" t="n">
-        <v>2036739.407865793</v>
+        <v>2252205.066901773</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.934907765026525e-07</v>
+        <v>1.320026122442718e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>36</v>
+        <v>35.87962962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>1842355.857360794</v>
+        <v>2037257.776306332</v>
       </c>
     </row>
   </sheetData>
@@ -30392,28 +30392,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4287.974950773166</v>
+        <v>4560.646468620615</v>
       </c>
       <c r="AB2" t="n">
-        <v>5866.996499751913</v>
+        <v>6240.077699889187</v>
       </c>
       <c r="AC2" t="n">
-        <v>5307.058588196672</v>
+        <v>5644.533442215585</v>
       </c>
       <c r="AD2" t="n">
-        <v>4287974.950773166</v>
+        <v>4560646.468620615</v>
       </c>
       <c r="AE2" t="n">
-        <v>5866996.499751912</v>
+        <v>6240077.699889187</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.964205917501253e-07</v>
+        <v>7.20886602059653e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.22800925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>5307058.588196672</v>
+        <v>5644533.442215585</v>
       </c>
     </row>
     <row r="3">
@@ -30498,28 +30498,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2636.182904554981</v>
+        <v>2832.178917690642</v>
       </c>
       <c r="AB3" t="n">
-        <v>3606.941750194026</v>
+        <v>3875.112142100096</v>
       </c>
       <c r="AC3" t="n">
-        <v>3262.700291929913</v>
+        <v>3505.276878011967</v>
       </c>
       <c r="AD3" t="n">
-        <v>2636182.904554981</v>
+        <v>2832178.917690642</v>
       </c>
       <c r="AE3" t="n">
-        <v>3606941.750194026</v>
+        <v>3875112.142100096</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.797225607899026e-07</v>
+        <v>9.8707204200297e-07</v>
       </c>
       <c r="AG3" t="n">
-        <v>46</v>
+        <v>45.44560185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>3262700.291929913</v>
+        <v>3505276.878011967</v>
       </c>
     </row>
     <row r="4">
@@ -30604,28 +30604,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2252.512828138446</v>
+        <v>2431.450875592693</v>
       </c>
       <c r="AB4" t="n">
-        <v>3081.987425311721</v>
+        <v>3326.818356028146</v>
       </c>
       <c r="AC4" t="n">
-        <v>2787.846871036372</v>
+        <v>3009.311481347582</v>
       </c>
       <c r="AD4" t="n">
-        <v>2252512.828138446</v>
+        <v>2431450.875592693</v>
       </c>
       <c r="AE4" t="n">
-        <v>3081987.425311721</v>
+        <v>3326818.356028146</v>
       </c>
       <c r="AF4" t="n">
-        <v>7.516234787562917e-07</v>
+        <v>1.091484327269029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>42</v>
+        <v>41.09953703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>2787846.871036372</v>
+        <v>3009311.481347582</v>
       </c>
     </row>
     <row r="5">
@@ -30710,28 +30710,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>2073.637700619346</v>
+        <v>2244.046765232889</v>
       </c>
       <c r="AB5" t="n">
-        <v>2837.242584426232</v>
+        <v>3070.403784548002</v>
       </c>
       <c r="AC5" t="n">
-        <v>2566.46013426357</v>
+        <v>2777.368756689401</v>
       </c>
       <c r="AD5" t="n">
-        <v>2073637.700619346</v>
+        <v>2244046.765232889</v>
       </c>
       <c r="AE5" t="n">
-        <v>2837242.584426233</v>
+        <v>3070403.784548002</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.890418480914356e-07</v>
+        <v>1.145822123832881e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>40</v>
+        <v>39.14930555555556</v>
       </c>
       <c r="AH5" t="n">
-        <v>2566460.13426357</v>
+        <v>2777368.756689401</v>
       </c>
     </row>
     <row r="6">
@@ -30816,28 +30816,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1952.117907051898</v>
+        <v>2122.526882156888</v>
       </c>
       <c r="AB6" t="n">
-        <v>2670.973841792325</v>
+        <v>2904.134919444366</v>
       </c>
       <c r="AC6" t="n">
-        <v>2416.059847066997</v>
+        <v>2626.968358711554</v>
       </c>
       <c r="AD6" t="n">
-        <v>1952117.907051898</v>
+        <v>2122526.882156888</v>
       </c>
       <c r="AE6" t="n">
-        <v>2670973.841792325</v>
+        <v>2904134.919444365</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.133824706546675e-07</v>
+        <v>1.181168821740322e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>38</v>
+        <v>37.98032407407407</v>
       </c>
       <c r="AH6" t="n">
-        <v>2416059.847066997</v>
+        <v>2626968.358711554</v>
       </c>
     </row>
     <row r="7">
@@ -30922,28 +30922,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1877.50030971506</v>
+        <v>2039.380391487894</v>
       </c>
       <c r="AB7" t="n">
-        <v>2568.878753219999</v>
+        <v>2790.370222746766</v>
       </c>
       <c r="AC7" t="n">
-        <v>2323.708570456656</v>
+        <v>2524.061204997018</v>
       </c>
       <c r="AD7" t="n">
-        <v>1877500.30971506</v>
+        <v>2039380.391487894</v>
       </c>
       <c r="AE7" t="n">
-        <v>2568878.753219998</v>
+        <v>2790370.222746766</v>
       </c>
       <c r="AF7" t="n">
-        <v>8.294494166887308e-07</v>
+        <v>1.204500742946769e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>38</v>
+        <v>37.23958333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>2323708.570456656</v>
+        <v>2524061.204997018</v>
       </c>
     </row>
     <row r="8">
@@ -31028,28 +31028,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1807.483055593528</v>
+        <v>1969.448388712382</v>
       </c>
       <c r="AB8" t="n">
-        <v>2473.078057187673</v>
+        <v>2694.68617136709</v>
       </c>
       <c r="AC8" t="n">
-        <v>2237.050958396534</v>
+        <v>2437.509105187609</v>
       </c>
       <c r="AD8" t="n">
-        <v>1807483.055593528</v>
+        <v>1969448.388712382</v>
       </c>
       <c r="AE8" t="n">
-        <v>2473078.057187673</v>
+        <v>2694686.17136709</v>
       </c>
       <c r="AF8" t="n">
-        <v>8.411393209460724e-07</v>
+        <v>1.221476459704948e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.72453703703704</v>
       </c>
       <c r="AH8" t="n">
-        <v>2237050.958396534</v>
+        <v>2437509.105187609</v>
       </c>
     </row>
     <row r="9">
@@ -31134,28 +31134,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1750.765789446354</v>
+        <v>1912.560530364617</v>
       </c>
       <c r="AB9" t="n">
-        <v>2395.474991455924</v>
+        <v>2616.849693860494</v>
       </c>
       <c r="AC9" t="n">
-        <v>2166.854220341636</v>
+        <v>2367.10123185006</v>
       </c>
       <c r="AD9" t="n">
-        <v>1750765.789446354</v>
+        <v>1912560.530364617</v>
       </c>
       <c r="AE9" t="n">
-        <v>2395474.991455924</v>
+        <v>2616849.693860494</v>
       </c>
       <c r="AF9" t="n">
-        <v>8.508008399898114e-07</v>
+        <v>1.235506618304173e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>37</v>
+        <v>36.30787037037037</v>
       </c>
       <c r="AH9" t="n">
-        <v>2166854.220341636</v>
+        <v>2367101.23185006</v>
       </c>
     </row>
     <row r="10">
@@ -31240,28 +31240,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1698.210513234774</v>
+        <v>1851.646953021473</v>
       </c>
       <c r="AB10" t="n">
-        <v>2323.56654396809</v>
+        <v>2533.505050022233</v>
       </c>
       <c r="AC10" t="n">
-        <v>2101.808614157901</v>
+        <v>2291.71088384478</v>
       </c>
       <c r="AD10" t="n">
-        <v>1698210.513234774</v>
+        <v>1851646.953021473</v>
       </c>
       <c r="AE10" t="n">
-        <v>2323566.54396809</v>
+        <v>2533505.050022233</v>
       </c>
       <c r="AF10" t="n">
-        <v>8.577934311209152e-07</v>
+        <v>1.245661042483723e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>37</v>
+        <v>36.01273148148148</v>
       </c>
       <c r="AH10" t="n">
-        <v>2101808.614157901</v>
+        <v>2291710.88384478</v>
       </c>
     </row>
     <row r="11">
@@ -31346,28 +31346,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1655.431509417838</v>
+        <v>1817.311501682121</v>
       </c>
       <c r="AB11" t="n">
-        <v>2265.034423669308</v>
+        <v>2486.525770726526</v>
       </c>
       <c r="AC11" t="n">
-        <v>2048.862717270088</v>
+        <v>2249.215241029224</v>
       </c>
       <c r="AD11" t="n">
-        <v>1655431.509417838</v>
+        <v>1817311.501682121</v>
       </c>
       <c r="AE11" t="n">
-        <v>2265034.423669308</v>
+        <v>2486525.770726526</v>
       </c>
       <c r="AF11" t="n">
-        <v>8.619035801063734e-07</v>
+        <v>1.251629673490023e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>36</v>
+        <v>35.83912037037037</v>
       </c>
       <c r="AH11" t="n">
-        <v>2048862.717270088</v>
+        <v>2249215.241029224</v>
       </c>
     </row>
     <row r="12">
@@ -31452,28 +31452,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>1646.833269504844</v>
+        <v>1808.713261769127</v>
       </c>
       <c r="AB12" t="n">
-        <v>2253.269932492775</v>
+        <v>2474.761279549994</v>
       </c>
       <c r="AC12" t="n">
-        <v>2038.221012619876</v>
+        <v>2238.573536379012</v>
       </c>
       <c r="AD12" t="n">
-        <v>1646833.269504844</v>
+        <v>1808713.261769127</v>
       </c>
       <c r="AE12" t="n">
-        <v>2253269.932492775</v>
+        <v>2474761.279549994</v>
       </c>
       <c r="AF12" t="n">
-        <v>8.631846655044382e-07</v>
+        <v>1.253490026011468e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>36</v>
+        <v>35.78703703703704</v>
       </c>
       <c r="AH12" t="n">
-        <v>2038221.012619876</v>
+        <v>2238573.536379012</v>
       </c>
     </row>
     <row r="13">
@@ -31558,28 +31558,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>1648.427133424587</v>
+        <v>1810.30712568887</v>
       </c>
       <c r="AB13" t="n">
-        <v>2255.450727424081</v>
+        <v>2476.9420744813</v>
       </c>
       <c r="AC13" t="n">
-        <v>2040.193675543704</v>
+        <v>2240.54619930284</v>
       </c>
       <c r="AD13" t="n">
-        <v>1648427.133424587</v>
+        <v>1810307.12568887</v>
       </c>
       <c r="AE13" t="n">
-        <v>2255450.727424081</v>
+        <v>2476942.0744813</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.639853438782287e-07</v>
+        <v>1.25465274633737e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>36</v>
+        <v>35.75231481481482</v>
       </c>
       <c r="AH13" t="n">
-        <v>2040193.675543704</v>
+        <v>2240546.19930284</v>
       </c>
     </row>
   </sheetData>
@@ -31855,28 +31855,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>922.3967787785649</v>
+        <v>1078.856045269737</v>
       </c>
       <c r="AB2" t="n">
-        <v>1262.063965998726</v>
+        <v>1476.138436907632</v>
       </c>
       <c r="AC2" t="n">
-        <v>1141.614352401708</v>
+        <v>1335.257856262475</v>
       </c>
       <c r="AD2" t="n">
-        <v>922396.7787785649</v>
+        <v>1078856.045269737</v>
       </c>
       <c r="AE2" t="n">
-        <v>1262063.965998726</v>
+        <v>1476138.436907632</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.334184516087755e-07</v>
+        <v>1.555952946654885e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.52314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>1141614.352401708</v>
+        <v>1335257.856262475</v>
       </c>
     </row>
   </sheetData>
@@ -32152,28 +32152,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2077.35365277939</v>
+        <v>2267.718703143809</v>
       </c>
       <c r="AB2" t="n">
-        <v>2842.326914107845</v>
+        <v>3102.79277432992</v>
       </c>
       <c r="AC2" t="n">
-        <v>2571.05922265627</v>
+        <v>2806.666586744765</v>
       </c>
       <c r="AD2" t="n">
-        <v>2077353.65277939</v>
+        <v>2267718.703143809</v>
       </c>
       <c r="AE2" t="n">
-        <v>2842326.914107845</v>
+        <v>3102792.77432992</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.328500620987432e-07</v>
+        <v>1.115329362237341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>47</v>
+        <v>46.42361111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>2571059.22265627</v>
+        <v>2806666.586744765</v>
       </c>
     </row>
     <row r="3">
@@ -32258,28 +32258,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1543.998557213802</v>
+        <v>1702.678784529528</v>
       </c>
       <c r="AB3" t="n">
-        <v>2112.566942388853</v>
+        <v>2329.680229879788</v>
       </c>
       <c r="AC3" t="n">
-        <v>1910.946518413587</v>
+        <v>2107.3388184668</v>
       </c>
       <c r="AD3" t="n">
-        <v>1543998.557213802</v>
+        <v>1702678.784529528</v>
       </c>
       <c r="AE3" t="n">
-        <v>2112566.942388854</v>
+        <v>2329680.229879789</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.704137670009619e-07</v>
+        <v>1.324688475636617e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>40</v>
+        <v>39.08564814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>1910946.518413587</v>
+        <v>2107338.8184668</v>
       </c>
     </row>
     <row r="4">
@@ -32364,28 +32364,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1362.607877312443</v>
+        <v>1513.345563652353</v>
       </c>
       <c r="AB4" t="n">
-        <v>1864.380211755798</v>
+        <v>2070.626164283444</v>
       </c>
       <c r="AC4" t="n">
-        <v>1686.446381019885</v>
+        <v>1873.008509306306</v>
       </c>
       <c r="AD4" t="n">
-        <v>1362607.877312443</v>
+        <v>1513345.563652353</v>
       </c>
       <c r="AE4" t="n">
-        <v>1864380.211755798</v>
+        <v>2070626.164283444</v>
       </c>
       <c r="AF4" t="n">
-        <v>9.192665186136731e-07</v>
+        <v>1.399037801805334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>38</v>
+        <v>37.00810185185185</v>
       </c>
       <c r="AH4" t="n">
-        <v>1686446.381019885</v>
+        <v>1873008.509306306</v>
       </c>
     </row>
     <row r="5">
@@ -32470,28 +32470,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1291.622872702151</v>
+        <v>1442.275218187489</v>
       </c>
       <c r="AB5" t="n">
-        <v>1767.255396810613</v>
+        <v>1973.384582216062</v>
       </c>
       <c r="AC5" t="n">
-        <v>1598.591022097535</v>
+        <v>1785.047527352016</v>
       </c>
       <c r="AD5" t="n">
-        <v>1291622.872702152</v>
+        <v>1442275.218187489</v>
       </c>
       <c r="AE5" t="n">
-        <v>1767255.396810613</v>
+        <v>1973384.582216062</v>
       </c>
       <c r="AF5" t="n">
-        <v>9.35668344967399e-07</v>
+        <v>1.423999849941402e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>37</v>
+        <v>36.3599537037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>1598591.022097535</v>
+        <v>1785047.527352016</v>
       </c>
     </row>
     <row r="6">
@@ -32576,28 +32576,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1294.187365423671</v>
+        <v>1444.839710909009</v>
       </c>
       <c r="AB6" t="n">
-        <v>1770.76424888963</v>
+        <v>1976.893434295079</v>
       </c>
       <c r="AC6" t="n">
-        <v>1601.764994258835</v>
+        <v>1788.221499513317</v>
       </c>
       <c r="AD6" t="n">
-        <v>1294187.365423671</v>
+        <v>1444839.710909009</v>
       </c>
       <c r="AE6" t="n">
-        <v>1770764.24888963</v>
+        <v>1976893.434295079</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.363150119562557e-07</v>
+        <v>1.424984016713792e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.33680555555556</v>
       </c>
       <c r="AH6" t="n">
-        <v>1601764.994258835</v>
+        <v>1788221.499513317</v>
       </c>
     </row>
   </sheetData>
@@ -32873,28 +32873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2706.455222185953</v>
+        <v>2918.606379964172</v>
       </c>
       <c r="AB2" t="n">
-        <v>3703.091435372579</v>
+        <v>3993.366008893279</v>
       </c>
       <c r="AC2" t="n">
-        <v>3349.673586101952</v>
+        <v>3612.244761728748</v>
       </c>
       <c r="AD2" t="n">
-        <v>2706455.222185953</v>
+        <v>2918606.379964172</v>
       </c>
       <c r="AE2" t="n">
-        <v>3703091.435372579</v>
+        <v>3993366.008893279</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.412797518634672e-07</v>
+        <v>9.573733994163295e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.07638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>3349673.586101952</v>
+        <v>3612244.761728749</v>
       </c>
     </row>
     <row r="3">
@@ -32979,28 +32979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1901.343795623759</v>
+        <v>2072.663847636821</v>
       </c>
       <c r="AB3" t="n">
-        <v>2601.502462540639</v>
+        <v>2835.910115812182</v>
       </c>
       <c r="AC3" t="n">
-        <v>2353.218718747398</v>
+        <v>2565.254834583913</v>
       </c>
       <c r="AD3" t="n">
-        <v>1901343.795623759</v>
+        <v>2072663.847636821</v>
       </c>
       <c r="AE3" t="n">
-        <v>2601502.462540639</v>
+        <v>2835910.115812181</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.969867772276682e-07</v>
+        <v>1.189830082716799e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>42</v>
+        <v>41.09953703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>2353218.718747398</v>
+        <v>2565254.834583913</v>
       </c>
     </row>
     <row r="4">
@@ -33085,28 +33085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1671.890172147213</v>
+        <v>1834.958662152673</v>
       </c>
       <c r="AB4" t="n">
-        <v>2287.553892120592</v>
+        <v>2510.671394220109</v>
       </c>
       <c r="AC4" t="n">
-        <v>2069.232959258654</v>
+        <v>2271.056440105174</v>
       </c>
       <c r="AD4" t="n">
-        <v>1671890.172147213</v>
+        <v>1834958.662152673</v>
       </c>
       <c r="AE4" t="n">
-        <v>2287553.892120592</v>
+        <v>2510671.394220109</v>
       </c>
       <c r="AF4" t="n">
-        <v>8.541529333955503e-07</v>
+        <v>1.275174048595925e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>39</v>
+        <v>38.34490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>2069232.959258654</v>
+        <v>2271056.440105174</v>
       </c>
     </row>
     <row r="5">
@@ -33191,28 +33191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1544.970534260729</v>
+        <v>1699.958143967729</v>
       </c>
       <c r="AB5" t="n">
-        <v>2113.896844265059</v>
+        <v>2325.957729436946</v>
       </c>
       <c r="AC5" t="n">
-        <v>1912.149496321256</v>
+        <v>2103.971588241659</v>
       </c>
       <c r="AD5" t="n">
-        <v>1544970.534260729</v>
+        <v>1699958.143967729</v>
       </c>
       <c r="AE5" t="n">
-        <v>2113896.84426506</v>
+        <v>2325957.729436946</v>
       </c>
       <c r="AF5" t="n">
-        <v>8.850566178189795e-07</v>
+        <v>1.321310489556323e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>38</v>
+        <v>37.00810185185185</v>
       </c>
       <c r="AH5" t="n">
-        <v>1912149.496321256</v>
+        <v>2103971.58824166</v>
       </c>
     </row>
     <row r="6">
@@ -33297,28 +33297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1452.479469486529</v>
+        <v>1599.38619889507</v>
       </c>
       <c r="AB6" t="n">
-        <v>1987.346489023203</v>
+        <v>2188.350757267459</v>
       </c>
       <c r="AC6" t="n">
-        <v>1797.676929369144</v>
+        <v>1979.49763236343</v>
       </c>
       <c r="AD6" t="n">
-        <v>1452479.469486529</v>
+        <v>1599386.19889507</v>
       </c>
       <c r="AE6" t="n">
-        <v>1987346.489023203</v>
+        <v>2188350.757267459</v>
       </c>
       <c r="AF6" t="n">
-        <v>9.031686672979123e-07</v>
+        <v>1.348350161914066e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>37</v>
+        <v>36.26736111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>1797676.929369144</v>
+        <v>1979497.63236343</v>
       </c>
     </row>
     <row r="7">
@@ -33403,28 +33403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1417.419887989377</v>
+        <v>1564.326617397918</v>
       </c>
       <c r="AB7" t="n">
-        <v>1939.376422899225</v>
+        <v>2140.380691143482</v>
       </c>
       <c r="AC7" t="n">
-        <v>1754.285059029628</v>
+        <v>1936.105762023915</v>
       </c>
       <c r="AD7" t="n">
-        <v>1417419.887989377</v>
+        <v>1564326.617397917</v>
       </c>
       <c r="AE7" t="n">
-        <v>1939376.422899225</v>
+        <v>2140380.691143482</v>
       </c>
       <c r="AF7" t="n">
-        <v>9.097908853886471e-07</v>
+        <v>1.358236542119866e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>37</v>
+        <v>36.00115740740741</v>
       </c>
       <c r="AH7" t="n">
-        <v>1754285.059029628</v>
+        <v>1936105.762023915</v>
       </c>
     </row>
     <row r="8">
@@ -33509,28 +33509,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1424.105670738098</v>
+        <v>1571.012400146639</v>
       </c>
       <c r="AB8" t="n">
-        <v>1948.524205811944</v>
+        <v>2149.5284740562</v>
       </c>
       <c r="AC8" t="n">
-        <v>1762.559790380151</v>
+        <v>1944.380493374437</v>
       </c>
       <c r="AD8" t="n">
-        <v>1424105.670738098</v>
+        <v>1571012.400146639</v>
       </c>
       <c r="AE8" t="n">
-        <v>1948524.205811944</v>
+        <v>2149528.4740562</v>
       </c>
       <c r="AF8" t="n">
-        <v>9.096210849247821e-07</v>
+        <v>1.357983045191512e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>37</v>
+        <v>36.00694444444444</v>
       </c>
       <c r="AH8" t="n">
-        <v>1762559.790380151</v>
+        <v>1944380.493374437</v>
       </c>
     </row>
   </sheetData>
